--- a/src/main/resources/file/用户信息测试.xlsx
+++ b/src/main/resources/file/用户信息测试.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>编号</t>
   </si>
@@ -37,16 +37,25 @@
     <t>少林寺</t>
   </si>
   <si>
+    <t>2022-08-02 12:12:12</t>
+  </si>
+  <si>
     <t>孙悟空</t>
   </si>
   <si>
     <t>弼马温</t>
   </si>
   <si>
+    <t>2022-08-03 13:12:12</t>
+  </si>
+  <si>
     <t>猪八戒</t>
   </si>
   <si>
     <t>天蓬元帅</t>
+  </si>
+  <si>
+    <t>2022-08-04 14:12:12</t>
   </si>
 </sst>
 </file>
@@ -55,9 +64,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,6 +78,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -76,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,12 +108,50 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -97,30 +159,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,14 +180,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -158,14 +191,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -174,24 +199,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,14 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +435,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,35 +498,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -507,8 +516,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -666,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -991,12 +1000,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="5" max="5" width="17.125"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1029,8 +1038,8 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
-        <v>44632.4613773148</v>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1038,16 +1047,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1">
-        <v>44631.4197106482</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1055,16 +1064,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44633.5051273148</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
